--- a/2025-03-03_4o-mini_feedback_sheets/overall_gen/Esophageal spasm a.k.a Jackhammer Esophagus_gen_overall.xlsx
+++ b/2025-03-03_4o-mini_feedback_sheets/overall_gen/Esophageal spasm a.k.a Jackhammer Esophagus_gen_overall.xlsx
@@ -462,110 +462,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Intermittent chest pain or discomfort</t>
+          <t>Intermittent chest pain that is non-cardiac in nature</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chest pain is a common symptom associated with esophageal spasm, often described as severe and occurring intermittently.</t>
+          <t>Chest pain that is not related to cardiac issues is a common symptom of esophageal spasm, as the spasms can mimic angina.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Consistent heartburn or acid reflux symptoms</t>
+          <t>Chest pain exclusively during exertion</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Heartburn is more characteristic of gastroesophageal reflux disease (GERD) rather than esophageal spasm, which may suggest an alternative diagnosis.</t>
+          <t>Pain only during exertion is more suggestive of cardiac issues rather than esophageal spasm.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Dysphagia (difficulty swallowing)</t>
+          <t>Dysphagia, particularly for both solids and liquids</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dysphagia is frequently reported in patients with esophageal spasm due to the irregular contractions of the esophagus.</t>
+          <t>Difficulty swallowing both solids and liquids is indicative of esophageal motility disorders like Jackhammer Esophagus.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>No history of food aversion or avoidance</t>
+          <t>No relief of symptoms with nitroglycerin</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Patients with esophageal spasm often develop food aversions due to pain; a lack of this history may indicate a different issue.</t>
+          <t>Lack of response to nitroglycerin suggests the pain may not be due to esophageal spasm.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Episodes triggered by stress or certain foods</t>
+          <t>Episodes of pain triggered by stress or hot/cold beverages</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Patients often report that episodes of esophageal spasm are triggered by stress or specific food types, indicating a link to esophageal motility disorders.</t>
+          <t>Stress and temperature extremes can trigger esophageal spasms, making this a relevant finding.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Symptoms improving with antacids</t>
+          <t>Absence of dysphagia</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>If symptoms improve significantly with antacids, it suggests a reflux-related issue rather than esophageal spasm.</t>
+          <t>Dysphagia is a common symptom of esophageal spasm, so its absence makes the diagnosis less likely.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sensation of food being stuck in the throat</t>
+          <t>Pain that improves with nitroglycerin</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>This sensation is commonly experienced in esophageal spasm, as the irregular contractions can create a feeling of obstruction.</t>
+          <t>Nitroglycerin can relieve esophageal spasm pain, similar to its effect on cardiac chest pain, supporting the diagnosis.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>No episodes of regurgitation</t>
+          <t>Pain that is constant and not episodic</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Regurgitation is more commonly associated with reflux conditions, and its absence may indicate that esophageal spasm is less likely.</t>
+          <t>Esophageal spasms typically cause episodic pain, so constant pain is less indicative of this condition.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Symptoms occurring in younger adults</t>
+          <t>Regurgitation of food or liquids</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Esophageal spasm is more prevalent in younger adults, which can help differentiate it from other esophageal conditions that are more common in older populations.</t>
+          <t>Regurgitation is a symptom associated with esophageal motility disorders, including Jackhammer Esophagus.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Older age of onset</t>
+          <t>Pain that is relieved by antacids</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Esophageal spasm typically presents in younger individuals; an older age of onset may suggest alternative diagnoses.</t>
+          <t>Pain relieved by antacids is more suggestive of gastroesophageal reflux disease (GERD) rather than esophageal spasm.</t>
         </is>
       </c>
     </row>
@@ -613,110 +613,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>History of gastroesophageal reflux disease (GERD)</t>
+          <t>History of dysphagia</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>GERD is commonly associated with esophageal motility disorders, including esophageal spasm.</t>
+          <t>Dysphagia is a common symptom in patients with esophageal spasm, indicating abnormal esophageal motility.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>No history of esophageal surgeries</t>
+          <t>History of achalasia</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Absence of surgical history reduces the likelihood of esophageal motility issues.</t>
+          <t>Achalasia is a different esophageal motility disorder and its presence makes esophageal spasm less likely.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Previous diagnosis of esophageal motility disorders</t>
+          <t>Previous diagnosis of gastroesophageal reflux disease (GERD)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>A history of other motility disorders increases the likelihood of having esophageal spasm.</t>
+          <t>GERD is often associated with esophageal motility disorders, including esophageal spasm.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>No history of gastrointestinal disorders</t>
+          <t>Long-term use of proton pump inhibitors (PPIs) without symptom relief</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Lack of gastrointestinal issues suggests a lower likelihood of esophageal spasm.</t>
+          <t>PPIs are often used for GERD-related symptoms, and lack of relief may suggest a different underlying issue than esophageal spasm.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Use of medications that affect esophageal motility (e.g., nitrates, calcium channel blockers)</t>
+          <t>Use of calcium channel blockers</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Certain medications can exacerbate or mimic symptoms of esophageal spasm.</t>
+          <t>Calcium channel blockers are sometimes used to treat esophageal spasms, suggesting a history of this condition.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>No use of medications known to affect esophageal motility</t>
+          <t>History of esophageal surgery for other conditions</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Absence of such medications indicates a lower risk for esophageal spasm.</t>
+          <t>Surgical interventions for other esophageal conditions may alter motility patterns, making primary esophageal spasm less likely.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>History of anxiety or stress-related disorders</t>
+          <t>History of chest pain not related to cardiac issues</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Psychological factors can contribute to esophageal spasm, making this history relevant.</t>
+          <t>Non-cardiac chest pain is a common presentation in esophageal spasm, often due to intense esophageal contractions.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>No history of anxiety or stress-related disorders</t>
+          <t>Diagnosis of eosinophilic esophagitis</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Without psychological factors, the likelihood of esophageal spasm decreases.</t>
+          <t>Eosinophilic esophagitis can mimic symptoms of esophageal spasm but is a distinct condition.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Prior surgical history involving the esophagus (e.g., fundoplication)</t>
+          <t>Previous esophageal manometry showing hypercontractile esophagus</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Surgical interventions can lead to changes in esophageal motility, potentially resulting in spasm.</t>
+          <t>Esophageal manometry can diagnose esophageal spasm by showing hypercontractile patterns.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>No previous diagnoses of esophageal conditions</t>
+          <t>History of scleroderma</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Lack of prior esophageal conditions suggests a lower probability of esophageal spasm.</t>
+          <t>Scleroderma can cause esophageal motility issues, but typically leads to hypomotility rather than hypercontractility seen in esophageal spasm.</t>
         </is>
       </c>
     </row>
@@ -764,110 +764,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Family history of esophageal disorders</t>
+          <t>Family history of esophageal motility disorders</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>A family history of esophageal disorders may indicate a genetic predisposition to conditions like esophageal spasm.</t>
+          <t>A family history of esophageal motility disorders can suggest a genetic predisposition to conditions like Jackhammer Esophagus.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>No history of gastrointestinal disorders</t>
+          <t>No family history of esophageal disorders</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A lack of gastrointestinal disorders in the patient's history suggests a lower likelihood of esophageal spasm.</t>
+          <t>Absence of a family history of esophageal disorders reduces the likelihood of a genetic predisposition to Jackhammer Esophagus.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>High levels of stress or anxiety</t>
+          <t>High-stress occupation</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Stress and anxiety can exacerbate esophageal motility disorders, including esophageal spasm.</t>
+          <t>High-stress levels are associated with esophageal spasms, as stress can exacerbate or trigger symptoms.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Regular exercise</t>
+          <t>Low-stress lifestyle</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Engaging in regular physical activity is generally associated with better gastrointestinal health and may reduce the risk of esophageal spasm.</t>
+          <t>A low-stress lifestyle is less likely to contribute to the development of esophageal spasms.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Consumption of spicy or acidic foods</t>
+          <t>History of anxiety or panic disorders</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dietary habits that include spicy or acidic foods can trigger symptoms associated with esophageal spasm.</t>
+          <t>Anxiety and panic disorders are linked to increased esophageal motility issues, including spasms.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Healthy diet with low fat and low acid</t>
+          <t>No history of anxiety or panic disorders</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>A diet low in fat and acid is less likely to trigger esophageal motility issues, making esophageal spasm less probable.</t>
+          <t>Without a history of anxiety or panic disorders, the likelihood of stress-induced esophageal spasms is reduced.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>History of smoking</t>
+          <t>Use of tobacco</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Smoking is associated with various esophageal conditions and may increase the risk of esophageal spasm.</t>
+          <t>Tobacco use can irritate the esophagus and is associated with increased risk of esophageal motility disorders.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>No significant stressors in life</t>
+          <t>Non-smoker</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Absence of significant stressors may indicate a lower risk for stress-related esophageal motility disorders.</t>
+          <t>Non-smokers have a lower risk of esophageal irritation and motility disorders compared to smokers.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sedentary lifestyle</t>
+          <t>Consumption of alcohol</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>A sedentary lifestyle may contribute to gastrointestinal motility issues, including esophageal spasm.</t>
+          <t>Alcohol can affect esophageal motility and is a known risk factor for esophageal spasms.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>No family history of esophageal conditions</t>
+          <t>Abstains from alcohol</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>A lack of family history of esophageal conditions suggests a lower genetic predisposition to esophageal spasm.</t>
+          <t>Abstaining from alcohol reduces the risk of esophageal motility issues, including spasms.</t>
         </is>
       </c>
     </row>
@@ -915,110 +915,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Dysphagia (difficulty swallowing)</t>
+          <t>Hypertensive peristalsis observed during physical exam</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dysphagia is a common symptom in patients with Esophageal spasm, as the spasms can disrupt normal swallowing.</t>
+          <t>Hypertensive peristalsis is a hallmark of Jackhammer Esophagus, characterized by extremely strong esophageal contractions.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Normal esophageal motility on manometry</t>
+          <t>Presence of significant cardiac abnormalities</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Normal motility findings would indicate that Esophageal spasm is unlikely, as the condition is characterized by abnormal motility.</t>
+          <t>Cardiac abnormalities suggest a cardiac cause of chest pain, which would argue against an esophageal origin.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Chest pain</t>
+          <t>Chest pain reproducible on palpation</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chest pain is frequently reported in patients with Esophageal spasm, often mimicking cardiac pain but is related to esophageal contractions.</t>
+          <t>Chest pain that can be reproduced on palpation may suggest esophageal origin, which is consistent with esophageal spasm.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Absence of reflux symptoms</t>
+          <t>Abnormal lung sounds</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>The absence of reflux symptoms suggests that esophageal spasms are not present, as they often coexist with gastroesophageal reflux disease.</t>
+          <t>Abnormal lung sounds could indicate a pulmonary cause of symptoms, which would be inconsistent with esophageal spasm.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Normal vital signs</t>
+          <t>No significant abnormalities in cardiac examination</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Patients with Esophageal spasm often present with normal vital signs, as the condition is not typically associated with systemic illness.</t>
+          <t>Absence of cardiac abnormalities during physical exam can help rule out cardiac causes of chest pain, supporting an esophageal cause.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>No tenderness on abdominal examination</t>
+          <t>Abdominal tenderness on palpation</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Lack of abdominal tenderness can indicate that there is no underlying gastrointestinal pathology, making Esophageal spasm less likely.</t>
+          <t>Abdominal tenderness may suggest a gastrointestinal issue other than esophageal spasm, such as gastritis or peptic ulcer disease.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>No signs of systemic infection</t>
+          <t>Normal lung auscultation</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>The absence of systemic infection signs supports the diagnosis of Esophageal spasm, as it is not an infectious process.</t>
+          <t>Normal lung sounds help exclude pulmonary causes of chest pain, indirectly supporting an esophageal cause.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Normal weight and nutritional status</t>
+          <t>Reproducible pain with movement</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Patients with Esophageal spasm may experience weight loss due to dysphagia; normal weight suggests the absence of this condition.</t>
+          <t>Pain that is reproducible with movement may suggest a musculoskeletal cause rather than an esophageal one.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Palpable esophageal spasms on examination</t>
+          <t>Absence of abdominal tenderness</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Physical examination may reveal palpable spasms in the esophagus, which is a direct indicator of the condition.</t>
+          <t>Lack of abdominal tenderness can help rule out gastrointestinal causes other than esophageal spasm.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>No signs of esophageal obstruction</t>
+          <t>Significant weight loss</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The absence of obstruction on physical examination or imaging would argue against Esophageal spasm, which can mimic obstruction.</t>
+          <t>Significant weight loss could indicate a more systemic issue, which is less typical of isolated esophageal spasm.</t>
         </is>
       </c>
     </row>
@@ -1066,110 +1066,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>High-resolution manometry showing intermittent periods of high amplitude contractions</t>
+          <t>High-resolution manometry showing hypercontractile peristalsis</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>This finding is characteristic of Jackhammer Esophagus, indicating abnormal esophageal motility.</t>
+          <t>This test result is highly specific for Jackhammer Esophagus, as it directly measures the excessive contractions characteristic of the condition.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Normal esophageal motility study results</t>
+          <t>High-resolution manometry showing normal peristalsis</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Normal results would indicate that the esophagus is functioning properly, making Jackhammer Esophagus unlikely.</t>
+          <t>Normal peristalsis on HRM is strong evidence against Jackhammer Esophagus, as the condition is characterized by hypercontractile peristalsis.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Esophageal pH monitoring showing normal acid exposure</t>
+          <t>Barium swallow showing corkscrew esophagus</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Normal acid exposure helps differentiate Jackhammer Esophagus from other conditions like GERD, supporting the diagnosis.</t>
+          <t>A corkscrew appearance on a barium swallow is indicative of esophageal spasms, supporting the diagnosis of Jackhammer Esophagus.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Negative results for esophageal reflux on pH monitoring</t>
+          <t>Barium swallow showing normal esophageal motility</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A negative result suggests that reflux is not contributing to symptoms, which may rule out Jackhammer Esophagus.</t>
+          <t>Normal motility on a barium swallow suggests the absence of esophageal spasms, arguing against Jackhammer Esophagus.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Barium swallow study showing intermittent contractions with high amplitude</t>
+          <t>Esophageal manometry showing increased distal contractile integral (DCI)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>This imaging finding is consistent with the diagnosis, as it reveals the characteristic spastic contractions.</t>
+          <t>An increased DCI on manometry is a hallmark of Jackhammer Esophagus, indicating strong and prolonged contractions.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Barium swallow study showing no evidence of spasm</t>
+          <t>Esophageal manometry showing low distal contractile integral (DCI)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>If the study shows normal contractions, it would argue against the diagnosis of Jackhammer Esophagus.</t>
+          <t>A low DCI on manometry indicates weak contractions, which is inconsistent with the hypercontractility seen in Jackhammer Esophagus.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Esophageal motility study revealing a pattern of repetitive contractions</t>
+          <t>Endoscopy showing normal mucosa</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>This pattern is a hallmark of Jackhammer Esophagus, indicating the presence of the condition.</t>
+          <t>Normal mucosa on endoscopy, despite symptoms, can suggest a motility disorder like Jackhammer Esophagus rather than structural abnormalities.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Endoscopy revealing esophagitis or other structural abnormalities</t>
+          <t>Endoscopy showing esophagitis</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The presence of esophagitis or structural issues would suggest an alternative diagnosis rather than Jackhammer Esophagus.</t>
+          <t>The presence of esophagitis on endoscopy suggests an inflammatory process rather than a primary motility disorder like Jackhammer Esophagus.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Absence of structural abnormalities on endoscopy</t>
+          <t>pH monitoring showing normal acid exposure</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>The lack of structural issues supports the diagnosis of functional motility disorder like Jackhammer Esophagus.</t>
+          <t>Normal acid exposure on pH monitoring, despite symptoms, suggests a motility disorder rather than acid reflux, supporting Jackhammer Esophagus.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Normal esophageal pressure measurements</t>
+          <t>pH monitoring showing abnormal acid exposure</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Normal pressure readings would indicate that there is no abnormal contraction pattern, making Jackhammer Esophagus unlikely.</t>
+          <t>Abnormal acid exposure on pH monitoring suggests gastroesophageal reflux disease rather than a primary motility disorder like Jackhammer Esophagus.</t>
         </is>
       </c>
     </row>
